--- a/04_Model_Saved/NN_full_v3_BO_test_0/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_0/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>323.6741638183594</v>
+        <v>198.8265533447266</v>
       </c>
       <c r="H2" t="n">
-        <v>95.94951629638672</v>
+        <v>45.87997055053711</v>
       </c>
       <c r="I2" t="n">
-        <v>357.5178527832031</v>
+        <v>531.6595458984375</v>
       </c>
       <c r="J2" t="n">
-        <v>354.2577514648438</v>
+        <v>73.98164367675781</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>339.3388061523438</v>
+        <v>206.5165863037109</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1855316162109</v>
+        <v>44.59428405761719</v>
       </c>
       <c r="I3" t="n">
-        <v>399.7240905761719</v>
+        <v>566.1331787109375</v>
       </c>
       <c r="J3" t="n">
-        <v>344.4335327148438</v>
+        <v>78.43695831298828</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>352.0922546386719</v>
+        <v>211.2466888427734</v>
       </c>
       <c r="H4" t="n">
-        <v>103.9607849121094</v>
+        <v>45.82341384887695</v>
       </c>
       <c r="I4" t="n">
-        <v>418.3617858886719</v>
+        <v>588.970703125</v>
       </c>
       <c r="J4" t="n">
-        <v>327.6855773925781</v>
+        <v>95.35814666748047</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>361.214599609375</v>
+        <v>211.9032135009766</v>
       </c>
       <c r="H5" t="n">
-        <v>103.2609558105469</v>
+        <v>44.27693939208984</v>
       </c>
       <c r="I5" t="n">
-        <v>452.3318176269531</v>
+        <v>605.6415405273438</v>
       </c>
       <c r="J5" t="n">
-        <v>339.0821838378906</v>
+        <v>109.2616577148438</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>389.2120361328125</v>
+        <v>209.1505737304688</v>
       </c>
       <c r="H6" t="n">
-        <v>119.2003402709961</v>
+        <v>41.82331848144531</v>
       </c>
       <c r="I6" t="n">
-        <v>466.2765197753906</v>
+        <v>587.060546875</v>
       </c>
       <c r="J6" t="n">
-        <v>367.7194213867188</v>
+        <v>125.0635528564453</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>294.0181884765625</v>
+        <v>159.0275421142578</v>
       </c>
       <c r="H7" t="n">
-        <v>92.72905731201172</v>
+        <v>40.97552490234375</v>
       </c>
       <c r="I7" t="n">
-        <v>287.9899597167969</v>
+        <v>446.579833984375</v>
       </c>
       <c r="J7" t="n">
-        <v>373.2745361328125</v>
+        <v>76.09767913818359</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>295.3668823242188</v>
+        <v>176.8713836669922</v>
       </c>
       <c r="H8" t="n">
-        <v>90.43087005615234</v>
+        <v>44.69474411010742</v>
       </c>
       <c r="I8" t="n">
-        <v>307.4468078613281</v>
+        <v>485.3924560546875</v>
       </c>
       <c r="J8" t="n">
-        <v>354.4621887207031</v>
+        <v>79.72654724121094</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>310.0337829589844</v>
+        <v>194.7713623046875</v>
       </c>
       <c r="H9" t="n">
-        <v>91.60623168945312</v>
+        <v>47.07242584228516</v>
       </c>
       <c r="I9" t="n">
-        <v>349.0877990722656</v>
+        <v>510.5643615722656</v>
       </c>
       <c r="J9" t="n">
-        <v>341.1740112304688</v>
+        <v>76.22987365722656</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>322.5162048339844</v>
+        <v>201.9167785644531</v>
       </c>
       <c r="H10" t="n">
-        <v>90.41875457763672</v>
+        <v>46.55706405639648</v>
       </c>
       <c r="I10" t="n">
-        <v>374.9713439941406</v>
+        <v>537.1229858398438</v>
       </c>
       <c r="J10" t="n">
-        <v>333.1105651855469</v>
+        <v>89.01200103759766</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>349.80859375</v>
+        <v>203.2816467285156</v>
       </c>
       <c r="H11" t="n">
-        <v>99.67404174804688</v>
+        <v>41.78073120117188</v>
       </c>
       <c r="I11" t="n">
-        <v>428.728759765625</v>
+        <v>578.2164916992188</v>
       </c>
       <c r="J11" t="n">
-        <v>332.49365234375</v>
+        <v>103.7937850952148</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>371.1218566894531</v>
+        <v>203.583740234375</v>
       </c>
       <c r="H12" t="n">
-        <v>104.4572906494141</v>
+        <v>41.93689727783203</v>
       </c>
       <c r="I12" t="n">
-        <v>450.3772888183594</v>
+        <v>581.7860717773438</v>
       </c>
       <c r="J12" t="n">
-        <v>358.131103515625</v>
+        <v>120.1992568969727</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>433.2608642578125</v>
+        <v>210.3793792724609</v>
       </c>
       <c r="H13" t="n">
-        <v>136.1194458007812</v>
+        <v>41.79017639160156</v>
       </c>
       <c r="I13" t="n">
-        <v>433.0961608886719</v>
+        <v>561.4002685546875</v>
       </c>
       <c r="J13" t="n">
-        <v>386.5664978027344</v>
+        <v>137.8532409667969</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>277.7479858398438</v>
+        <v>129.1346130371094</v>
       </c>
       <c r="H14" t="n">
-        <v>99.58137512207031</v>
+        <v>34.07539749145508</v>
       </c>
       <c r="I14" t="n">
-        <v>165.4615478515625</v>
+        <v>246.0489044189453</v>
       </c>
       <c r="J14" t="n">
-        <v>388.8703002929688</v>
+        <v>69.68904113769531</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>284.4696044921875</v>
+        <v>143.7566070556641</v>
       </c>
       <c r="H15" t="n">
-        <v>98.29823303222656</v>
+        <v>38.18032455444336</v>
       </c>
       <c r="I15" t="n">
-        <v>225.4085998535156</v>
+        <v>312.7031555175781</v>
       </c>
       <c r="J15" t="n">
-        <v>375.0306091308594</v>
+        <v>71.63097381591797</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>287.4190063476562</v>
+        <v>157.8084716796875</v>
       </c>
       <c r="H16" t="n">
-        <v>89.07666015625</v>
+        <v>37.41609573364258</v>
       </c>
       <c r="I16" t="n">
-        <v>244.1119537353516</v>
+        <v>382.8168640136719</v>
       </c>
       <c r="J16" t="n">
-        <v>350.8122863769531</v>
+        <v>79.61365509033203</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>298.4355163574219</v>
+        <v>176.5541534423828</v>
       </c>
       <c r="H17" t="n">
-        <v>91.39495086669922</v>
+        <v>41.75821685791016</v>
       </c>
       <c r="I17" t="n">
-        <v>300.5604553222656</v>
+        <v>455.6690063476562</v>
       </c>
       <c r="J17" t="n">
-        <v>354.2642517089844</v>
+        <v>78.77311706542969</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>302.4333190917969</v>
+        <v>187.4519195556641</v>
       </c>
       <c r="H18" t="n">
-        <v>81.73487854003906</v>
+        <v>46.16414260864258</v>
       </c>
       <c r="I18" t="n">
-        <v>308.0787658691406</v>
+        <v>487.8423461914062</v>
       </c>
       <c r="J18" t="n">
-        <v>336.8928527832031</v>
+        <v>83.03720855712891</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>330.6712646484375</v>
+        <v>196.4587249755859</v>
       </c>
       <c r="H19" t="n">
-        <v>92.99832153320312</v>
+        <v>45.52019119262695</v>
       </c>
       <c r="I19" t="n">
-        <v>382.4057922363281</v>
+        <v>551.9819946289062</v>
       </c>
       <c r="J19" t="n">
-        <v>320.2265014648438</v>
+        <v>104.173828125</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>366.0691833496094</v>
+        <v>202.4434661865234</v>
       </c>
       <c r="H20" t="n">
-        <v>99.76614379882812</v>
+        <v>42.30210876464844</v>
       </c>
       <c r="I20" t="n">
-        <v>401.2378540039062</v>
+        <v>590.0418090820312</v>
       </c>
       <c r="J20" t="n">
-        <v>325.4285583496094</v>
+        <v>127.81396484375</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>423.8887329101562</v>
+        <v>211.7103424072266</v>
       </c>
       <c r="H21" t="n">
-        <v>120.8431930541992</v>
+        <v>42.46772766113281</v>
       </c>
       <c r="I21" t="n">
-        <v>406.2313842773438</v>
+        <v>574.6996459960938</v>
       </c>
       <c r="J21" t="n">
-        <v>350.7049255371094</v>
+        <v>141.1811676025391</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>488.3180236816406</v>
+        <v>259.8732299804688</v>
       </c>
       <c r="H22" t="n">
-        <v>148.6414489746094</v>
+        <v>58.24872207641602</v>
       </c>
       <c r="I22" t="n">
-        <v>367.2036743164062</v>
+        <v>506.2466735839844</v>
       </c>
       <c r="J22" t="n">
-        <v>424.9043273925781</v>
+        <v>163.4303588867188</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>270.6584777832031</v>
+        <v>124.462760925293</v>
       </c>
       <c r="H23" t="n">
-        <v>103.8597946166992</v>
+        <v>28.30961036682129</v>
       </c>
       <c r="I23" t="n">
-        <v>130.653076171875</v>
+        <v>184.2238616943359</v>
       </c>
       <c r="J23" t="n">
-        <v>401.052978515625</v>
+        <v>74.173583984375</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>276.7879028320312</v>
+        <v>134.6130218505859</v>
       </c>
       <c r="H24" t="n">
-        <v>99.60913848876953</v>
+        <v>31.7125244140625</v>
       </c>
       <c r="I24" t="n">
-        <v>169.8009338378906</v>
+        <v>233.9970550537109</v>
       </c>
       <c r="J24" t="n">
-        <v>372.1141662597656</v>
+        <v>78.05109405517578</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>280.6928405761719</v>
+        <v>149.3928375244141</v>
       </c>
       <c r="H25" t="n">
-        <v>86.82403564453125</v>
+        <v>36.64114761352539</v>
       </c>
       <c r="I25" t="n">
-        <v>196.1784973144531</v>
+        <v>287.5765686035156</v>
       </c>
       <c r="J25" t="n">
-        <v>366.9570922851562</v>
+        <v>81.56184387207031</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>284.6802062988281</v>
+        <v>165.8412170410156</v>
       </c>
       <c r="H26" t="n">
-        <v>87.85640716552734</v>
+        <v>41.25470733642578</v>
       </c>
       <c r="I26" t="n">
-        <v>238.5247650146484</v>
+        <v>365.28564453125</v>
       </c>
       <c r="J26" t="n">
-        <v>345.7967529296875</v>
+        <v>90.76610565185547</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>291.2695617675781</v>
+        <v>179.3769073486328</v>
       </c>
       <c r="H27" t="n">
-        <v>84.27272796630859</v>
+        <v>44.30971145629883</v>
       </c>
       <c r="I27" t="n">
-        <v>273.5289001464844</v>
+        <v>448.0034484863281</v>
       </c>
       <c r="J27" t="n">
-        <v>328.0171813964844</v>
+        <v>98.37932586669922</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>313.9868469238281</v>
+        <v>189.7068786621094</v>
       </c>
       <c r="H28" t="n">
-        <v>87.888916015625</v>
+        <v>45.99454498291016</v>
       </c>
       <c r="I28" t="n">
-        <v>318.7080688476562</v>
+        <v>526.3253173828125</v>
       </c>
       <c r="J28" t="n">
-        <v>307.7670593261719</v>
+        <v>111.4484329223633</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>357.4049072265625</v>
+        <v>200.56884765625</v>
       </c>
       <c r="H29" t="n">
-        <v>92.74979400634766</v>
+        <v>47.25887298583984</v>
       </c>
       <c r="I29" t="n">
-        <v>377.8803405761719</v>
+        <v>583.9602661132812</v>
       </c>
       <c r="J29" t="n">
-        <v>309.8485107421875</v>
+        <v>132.7809753417969</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>428.3845825195312</v>
+        <v>223.8408813476562</v>
       </c>
       <c r="H30" t="n">
-        <v>113.5870895385742</v>
+        <v>49.3751220703125</v>
       </c>
       <c r="I30" t="n">
-        <v>384.1842956542969</v>
+        <v>595.6555786132812</v>
       </c>
       <c r="J30" t="n">
-        <v>341.7185668945312</v>
+        <v>142.2993927001953</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>502.8359375</v>
+        <v>275.6432495117188</v>
       </c>
       <c r="H31" t="n">
-        <v>139.3327941894531</v>
+        <v>61.26876068115234</v>
       </c>
       <c r="I31" t="n">
-        <v>346.3857727050781</v>
+        <v>524.8236083984375</v>
       </c>
       <c r="J31" t="n">
-        <v>432.9023742675781</v>
+        <v>159.2559967041016</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>270.3809814453125</v>
+        <v>123.2895431518555</v>
       </c>
       <c r="H32" t="n">
-        <v>106.1826858520508</v>
+        <v>28.51981544494629</v>
       </c>
       <c r="I32" t="n">
-        <v>99.51804351806641</v>
+        <v>144.4916229248047</v>
       </c>
       <c r="J32" t="n">
-        <v>391.2557373046875</v>
+        <v>77.55727386474609</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>269.9295043945312</v>
+        <v>136.4089508056641</v>
       </c>
       <c r="H33" t="n">
-        <v>96.02958679199219</v>
+        <v>31.95131492614746</v>
       </c>
       <c r="I33" t="n">
-        <v>128.6175537109375</v>
+        <v>180.0169067382812</v>
       </c>
       <c r="J33" t="n">
-        <v>390.5004272460938</v>
+        <v>83.61222076416016</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>274.6041259765625</v>
+        <v>149.2336578369141</v>
       </c>
       <c r="H34" t="n">
-        <v>92.14068603515625</v>
+        <v>37.44553375244141</v>
       </c>
       <c r="I34" t="n">
-        <v>131.8892974853516</v>
+        <v>228.9359588623047</v>
       </c>
       <c r="J34" t="n">
-        <v>367.2023315429688</v>
+        <v>88.79096221923828</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>280.8045959472656</v>
+        <v>160.9304656982422</v>
       </c>
       <c r="H35" t="n">
-        <v>88.93833160400391</v>
+        <v>41.72966003417969</v>
       </c>
       <c r="I35" t="n">
-        <v>159.9632415771484</v>
+        <v>301.2960815429688</v>
       </c>
       <c r="J35" t="n">
-        <v>337.5420837402344</v>
+        <v>99.64736938476562</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>289.451416015625</v>
+        <v>179.8434600830078</v>
       </c>
       <c r="H36" t="n">
-        <v>84.77463531494141</v>
+        <v>48.20806884765625</v>
       </c>
       <c r="I36" t="n">
-        <v>209.4060974121094</v>
+        <v>400.486083984375</v>
       </c>
       <c r="J36" t="n">
-        <v>330.4311828613281</v>
+        <v>106.9090118408203</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7097473144531</v>
+        <v>186.1107635498047</v>
       </c>
       <c r="H37" t="n">
-        <v>91.03447723388672</v>
+        <v>48.14653396606445</v>
       </c>
       <c r="I37" t="n">
-        <v>261.8898315429688</v>
+        <v>485.0980224609375</v>
       </c>
       <c r="J37" t="n">
-        <v>303.2141418457031</v>
+        <v>120.0750732421875</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>343.640869140625</v>
+        <v>207.3504028320312</v>
       </c>
       <c r="H38" t="n">
-        <v>95.95173645019531</v>
+        <v>49.14707565307617</v>
       </c>
       <c r="I38" t="n">
-        <v>320.6544494628906</v>
+        <v>566.7368774414062</v>
       </c>
       <c r="J38" t="n">
-        <v>298.2282104492188</v>
+        <v>141.1064758300781</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>417.1684265136719</v>
+        <v>232.0043487548828</v>
       </c>
       <c r="H39" t="n">
-        <v>114.7235412597656</v>
+        <v>52.72114562988281</v>
       </c>
       <c r="I39" t="n">
-        <v>338.0915222167969</v>
+        <v>592.6615600585938</v>
       </c>
       <c r="J39" t="n">
-        <v>345.9596252441406</v>
+        <v>153.0883941650391</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>497.3707275390625</v>
+        <v>291.5123901367188</v>
       </c>
       <c r="H40" t="n">
-        <v>135.3182678222656</v>
+        <v>69.66633605957031</v>
       </c>
       <c r="I40" t="n">
-        <v>295.0876770019531</v>
+        <v>557.4630737304688</v>
       </c>
       <c r="J40" t="n">
-        <v>427.0890808105469</v>
+        <v>159.1470031738281</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>259.4668579101562</v>
+        <v>126.4389419555664</v>
       </c>
       <c r="H41" t="n">
-        <v>94.75372314453125</v>
+        <v>30.21611976623535</v>
       </c>
       <c r="I41" t="n">
-        <v>53.50754547119141</v>
+        <v>107.8026962280273</v>
       </c>
       <c r="J41" t="n">
-        <v>400.6406860351562</v>
+        <v>80.63055419921875</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>262.0102844238281</v>
+        <v>140.3727722167969</v>
       </c>
       <c r="H42" t="n">
-        <v>95.70806121826172</v>
+        <v>35.47568130493164</v>
       </c>
       <c r="I42" t="n">
-        <v>70.43408966064453</v>
+        <v>133.5885772705078</v>
       </c>
       <c r="J42" t="n">
-        <v>382.885009765625</v>
+        <v>87.573974609375</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>270.0329284667969</v>
+        <v>153.2364807128906</v>
       </c>
       <c r="H43" t="n">
-        <v>89.13070678710938</v>
+        <v>42.23259353637695</v>
       </c>
       <c r="I43" t="n">
-        <v>103.0107955932617</v>
+        <v>176.4524536132812</v>
       </c>
       <c r="J43" t="n">
-        <v>377.5249938964844</v>
+        <v>88.88968658447266</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>271.7407836914062</v>
+        <v>168.5076904296875</v>
       </c>
       <c r="H44" t="n">
-        <v>91.82033538818359</v>
+        <v>49.13521194458008</v>
       </c>
       <c r="I44" t="n">
-        <v>116.9140853881836</v>
+        <v>238.5369567871094</v>
       </c>
       <c r="J44" t="n">
-        <v>341.4366455078125</v>
+        <v>101.0604476928711</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>288.4165954589844</v>
+        <v>179.8724365234375</v>
       </c>
       <c r="H45" t="n">
-        <v>90.40438079833984</v>
+        <v>51.17994689941406</v>
       </c>
       <c r="I45" t="n">
-        <v>144.7339782714844</v>
+        <v>347.3363952636719</v>
       </c>
       <c r="J45" t="n">
-        <v>325.0685729980469</v>
+        <v>114.155876159668</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>305.5851440429688</v>
+        <v>193.0919189453125</v>
       </c>
       <c r="H46" t="n">
-        <v>89.42471313476562</v>
+        <v>48.99635314941406</v>
       </c>
       <c r="I46" t="n">
-        <v>196.0157165527344</v>
+        <v>457.1738586425781</v>
       </c>
       <c r="J46" t="n">
-        <v>302.688232421875</v>
+        <v>127.3946838378906</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>342.2491455078125</v>
+        <v>207.1278839111328</v>
       </c>
       <c r="H47" t="n">
-        <v>98.78867340087891</v>
+        <v>50.48675537109375</v>
       </c>
       <c r="I47" t="n">
-        <v>275.6897583007812</v>
+        <v>526.9432983398438</v>
       </c>
       <c r="J47" t="n">
-        <v>312.7178955078125</v>
+        <v>149.8233642578125</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>424.2151184082031</v>
+        <v>244.7161712646484</v>
       </c>
       <c r="H48" t="n">
-        <v>119.2605743408203</v>
+        <v>57.3170166015625</v>
       </c>
       <c r="I48" t="n">
-        <v>284.5041198730469</v>
+        <v>588.38037109375</v>
       </c>
       <c r="J48" t="n">
-        <v>347.78125</v>
+        <v>161.5905609130859</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>507.1023559570312</v>
+        <v>301.1028747558594</v>
       </c>
       <c r="H49" t="n">
-        <v>134.6047821044922</v>
+        <v>68.15172576904297</v>
       </c>
       <c r="I49" t="n">
-        <v>280.6942443847656</v>
+        <v>564.13037109375</v>
       </c>
       <c r="J49" t="n">
-        <v>447.9766540527344</v>
+        <v>171.3046112060547</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>259.0411376953125</v>
+        <v>136.1718597412109</v>
       </c>
       <c r="H50" t="n">
-        <v>95.78076934814453</v>
+        <v>35.5833740234375</v>
       </c>
       <c r="I50" t="n">
-        <v>15.33641147613525</v>
+        <v>74.34037780761719</v>
       </c>
       <c r="J50" t="n">
-        <v>383.7691040039062</v>
+        <v>85.42900848388672</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>259.0185546875</v>
+        <v>151.0716857910156</v>
       </c>
       <c r="H51" t="n">
-        <v>90.65646362304688</v>
+        <v>44.09819793701172</v>
       </c>
       <c r="I51" t="n">
-        <v>38.01928329467773</v>
+        <v>94.02203369140625</v>
       </c>
       <c r="J51" t="n">
-        <v>392.23583984375</v>
+        <v>85.49462127685547</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>260.0048522949219</v>
+        <v>164.8246307373047</v>
       </c>
       <c r="H52" t="n">
-        <v>88.27689361572266</v>
+        <v>52.44781494140625</v>
       </c>
       <c r="I52" t="n">
-        <v>45.85113143920898</v>
+        <v>126.763671875</v>
       </c>
       <c r="J52" t="n">
-        <v>357.0201416015625</v>
+        <v>89.43003082275391</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>267.4111022949219</v>
+        <v>176.2508392333984</v>
       </c>
       <c r="H53" t="n">
-        <v>85.32550811767578</v>
+        <v>55.03858184814453</v>
       </c>
       <c r="I53" t="n">
-        <v>65.94867706298828</v>
+        <v>181.3601226806641</v>
       </c>
       <c r="J53" t="n">
-        <v>347.65185546875</v>
+        <v>95.63249969482422</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>278.2561340332031</v>
+        <v>189.3018035888672</v>
       </c>
       <c r="H54" t="n">
-        <v>89.072998046875</v>
+        <v>56.57149124145508</v>
       </c>
       <c r="I54" t="n">
-        <v>87.37891387939453</v>
+        <v>284.0538330078125</v>
       </c>
       <c r="J54" t="n">
-        <v>329.4692993164062</v>
+        <v>103.4763793945312</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>302.3975524902344</v>
+        <v>198.1869506835938</v>
       </c>
       <c r="H55" t="n">
-        <v>92.76792144775391</v>
+        <v>56.21662139892578</v>
       </c>
       <c r="I55" t="n">
-        <v>122.6098175048828</v>
+        <v>402.6175842285156</v>
       </c>
       <c r="J55" t="n">
-        <v>314.8657836914062</v>
+        <v>117.8111801147461</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>346.91796875</v>
+        <v>215.8034820556641</v>
       </c>
       <c r="H56" t="n">
-        <v>105.8470230102539</v>
+        <v>55.26729965209961</v>
       </c>
       <c r="I56" t="n">
-        <v>211.4021301269531</v>
+        <v>510.6731872558594</v>
       </c>
       <c r="J56" t="n">
-        <v>307.1519775390625</v>
+        <v>153.7871704101562</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>407.9297790527344</v>
+        <v>247.12158203125</v>
       </c>
       <c r="H57" t="n">
-        <v>119.1477355957031</v>
+        <v>58.17784118652344</v>
       </c>
       <c r="I57" t="n">
-        <v>257.2699279785156</v>
+        <v>586.1768188476562</v>
       </c>
       <c r="J57" t="n">
-        <v>349.1428833007812</v>
+        <v>167.8622589111328</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>494.3172912597656</v>
+        <v>304.629638671875</v>
       </c>
       <c r="H58" t="n">
-        <v>132.5712280273438</v>
+        <v>67.05595397949219</v>
       </c>
       <c r="I58" t="n">
-        <v>302.4477233886719</v>
+        <v>571.9801635742188</v>
       </c>
       <c r="J58" t="n">
-        <v>436.680419921875</v>
+        <v>179.4390869140625</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>256.9767761230469</v>
+        <v>163.5361785888672</v>
       </c>
       <c r="H59" t="n">
-        <v>87.81442260742188</v>
+        <v>54.78910446166992</v>
       </c>
       <c r="I59" t="n">
-        <v>-12.54595565795898</v>
+        <v>42.96196746826172</v>
       </c>
       <c r="J59" t="n">
-        <v>370.5267333984375</v>
+        <v>92.87700653076172</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>260.9913635253906</v>
+        <v>170.8231201171875</v>
       </c>
       <c r="H60" t="n">
-        <v>82.99636077880859</v>
+        <v>57.93199920654297</v>
       </c>
       <c r="I60" t="n">
-        <v>-15.42864894866943</v>
+        <v>77.10549163818359</v>
       </c>
       <c r="J60" t="n">
-        <v>363.3983764648438</v>
+        <v>95.28794860839844</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>271.4773559570312</v>
+        <v>182.3660278320312</v>
       </c>
       <c r="H61" t="n">
-        <v>85.97709655761719</v>
+        <v>61.81014633178711</v>
       </c>
       <c r="I61" t="n">
-        <v>8.841910362243652</v>
+        <v>142.1257629394531</v>
       </c>
       <c r="J61" t="n">
-        <v>359.0923767089844</v>
+        <v>93.50554656982422</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>282.8744201660156</v>
+        <v>195.5396423339844</v>
       </c>
       <c r="H62" t="n">
-        <v>86.34378814697266</v>
+        <v>66.0247802734375</v>
       </c>
       <c r="I62" t="n">
-        <v>31.31099891662598</v>
+        <v>210.81884765625</v>
       </c>
       <c r="J62" t="n">
-        <v>321.1049499511719</v>
+        <v>107.3692855834961</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>303.2799682617188</v>
+        <v>204.8272247314453</v>
       </c>
       <c r="H63" t="n">
-        <v>94.32871246337891</v>
+        <v>60.78707504272461</v>
       </c>
       <c r="I63" t="n">
-        <v>78.01805114746094</v>
+        <v>351.9715270996094</v>
       </c>
       <c r="J63" t="n">
-        <v>311.2849426269531</v>
+        <v>110.352165222168</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>338.0498352050781</v>
+        <v>224.326171875</v>
       </c>
       <c r="H64" t="n">
-        <v>106.0623931884766</v>
+        <v>63.06036758422852</v>
       </c>
       <c r="I64" t="n">
-        <v>138.4075317382812</v>
+        <v>468.1830139160156</v>
       </c>
       <c r="J64" t="n">
-        <v>304.1322937011719</v>
+        <v>151.2963104248047</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>397.3362426757812</v>
+        <v>259.8578796386719</v>
       </c>
       <c r="H65" t="n">
-        <v>120.9313049316406</v>
+        <v>66.89848327636719</v>
       </c>
       <c r="I65" t="n">
-        <v>210.74853515625</v>
+        <v>550.7202758789062</v>
       </c>
       <c r="J65" t="n">
-        <v>337.9285278320312</v>
+        <v>169.9469299316406</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>267.0628662109375</v>
+        <v>177.7185668945312</v>
       </c>
       <c r="H66" t="n">
-        <v>87.43241882324219</v>
+        <v>60.55996704101562</v>
       </c>
       <c r="I66" t="n">
-        <v>-44.7116584777832</v>
+        <v>17.10259056091309</v>
       </c>
       <c r="J66" t="n">
-        <v>363.9146423339844</v>
+        <v>96.46397399902344</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>278.283935546875</v>
+        <v>186.7393188476562</v>
       </c>
       <c r="H67" t="n">
-        <v>87.10404968261719</v>
+        <v>64.31237030029297</v>
       </c>
       <c r="I67" t="n">
-        <v>-20.8356819152832</v>
+        <v>75.11667633056641</v>
       </c>
       <c r="J67" t="n">
-        <v>354.89306640625</v>
+        <v>98.42632293701172</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>289.8802795410156</v>
+        <v>196.3146362304688</v>
       </c>
       <c r="H68" t="n">
-        <v>90.59915161132812</v>
+        <v>66.33408355712891</v>
       </c>
       <c r="I68" t="n">
-        <v>2.82354736328125</v>
+        <v>153.8471221923828</v>
       </c>
       <c r="J68" t="n">
-        <v>332.130615234375</v>
+        <v>101.9646682739258</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>298.9691467285156</v>
+        <v>212.5667419433594</v>
       </c>
       <c r="H69" t="n">
-        <v>89.87799072265625</v>
+        <v>65.21231079101562</v>
       </c>
       <c r="I69" t="n">
-        <v>43.01772308349609</v>
+        <v>275.9371948242188</v>
       </c>
       <c r="J69" t="n">
-        <v>312.0964660644531</v>
+        <v>120.3910980224609</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>337.3018493652344</v>
+        <v>229.8157348632812</v>
       </c>
       <c r="H70" t="n">
-        <v>106.8216781616211</v>
+        <v>65.5162353515625</v>
       </c>
       <c r="I70" t="n">
-        <v>103.0641632080078</v>
+        <v>418.7351684570312</v>
       </c>
       <c r="J70" t="n">
-        <v>324.8070068359375</v>
+        <v>141.3149261474609</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_0/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_0/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>198.8265533447266</v>
+        <v>198.0183563232422</v>
       </c>
       <c r="H2" t="n">
-        <v>45.87997055053711</v>
+        <v>47.98207855224609</v>
       </c>
       <c r="I2" t="n">
-        <v>531.6595458984375</v>
+        <v>535.7757568359375</v>
       </c>
       <c r="J2" t="n">
-        <v>73.98164367675781</v>
+        <v>74.25601959228516</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>206.5165863037109</v>
+        <v>208.1011505126953</v>
       </c>
       <c r="H3" t="n">
-        <v>44.59428405761719</v>
+        <v>47.63229370117188</v>
       </c>
       <c r="I3" t="n">
-        <v>566.1331787109375</v>
+        <v>564.7139282226562</v>
       </c>
       <c r="J3" t="n">
-        <v>78.43695831298828</v>
+        <v>77.07352447509766</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>211.2466888427734</v>
+        <v>212.0284118652344</v>
       </c>
       <c r="H4" t="n">
-        <v>45.82341384887695</v>
+        <v>43.84580993652344</v>
       </c>
       <c r="I4" t="n">
-        <v>588.970703125</v>
+        <v>587.5743408203125</v>
       </c>
       <c r="J4" t="n">
-        <v>95.35814666748047</v>
+        <v>94.78026580810547</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>211.9032135009766</v>
+        <v>212.0543212890625</v>
       </c>
       <c r="H5" t="n">
-        <v>44.27693939208984</v>
+        <v>44.26638031005859</v>
       </c>
       <c r="I5" t="n">
-        <v>605.6415405273438</v>
+        <v>597.8112182617188</v>
       </c>
       <c r="J5" t="n">
-        <v>109.2616577148438</v>
+        <v>108.3625869750977</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>209.1505737304688</v>
+        <v>210.8224639892578</v>
       </c>
       <c r="H6" t="n">
-        <v>41.82331848144531</v>
+        <v>42.51710510253906</v>
       </c>
       <c r="I6" t="n">
-        <v>587.060546875</v>
+        <v>589.0747680664062</v>
       </c>
       <c r="J6" t="n">
-        <v>125.0635528564453</v>
+        <v>122.1516952514648</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>159.0275421142578</v>
+        <v>159.8312530517578</v>
       </c>
       <c r="H7" t="n">
-        <v>40.97552490234375</v>
+        <v>39.22308731079102</v>
       </c>
       <c r="I7" t="n">
-        <v>446.579833984375</v>
+        <v>445.1380310058594</v>
       </c>
       <c r="J7" t="n">
-        <v>76.09767913818359</v>
+        <v>73.96808624267578</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>176.8713836669922</v>
+        <v>176.4345245361328</v>
       </c>
       <c r="H8" t="n">
-        <v>44.69474411010742</v>
+        <v>42.21813583374023</v>
       </c>
       <c r="I8" t="n">
-        <v>485.3924560546875</v>
+        <v>484.96240234375</v>
       </c>
       <c r="J8" t="n">
-        <v>79.72654724121094</v>
+        <v>74.62382507324219</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>194.7713623046875</v>
+        <v>191.0217742919922</v>
       </c>
       <c r="H9" t="n">
-        <v>47.07242584228516</v>
+        <v>44.63239288330078</v>
       </c>
       <c r="I9" t="n">
-        <v>510.5643615722656</v>
+        <v>514.2492065429688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.22987365722656</v>
+        <v>78.96719360351562</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>201.9167785644531</v>
+        <v>203.7647399902344</v>
       </c>
       <c r="H10" t="n">
-        <v>46.55706405639648</v>
+        <v>45.71217727661133</v>
       </c>
       <c r="I10" t="n">
-        <v>537.1229858398438</v>
+        <v>542.3412475585938</v>
       </c>
       <c r="J10" t="n">
-        <v>89.01200103759766</v>
+        <v>89.18772125244141</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>203.2816467285156</v>
+        <v>204.2940368652344</v>
       </c>
       <c r="H11" t="n">
-        <v>41.78073120117188</v>
+        <v>42.63822174072266</v>
       </c>
       <c r="I11" t="n">
-        <v>578.2164916992188</v>
+        <v>576.5715942382812</v>
       </c>
       <c r="J11" t="n">
-        <v>103.7937850952148</v>
+        <v>105.1872482299805</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>203.583740234375</v>
+        <v>206.8736114501953</v>
       </c>
       <c r="H12" t="n">
-        <v>41.93689727783203</v>
+        <v>42.00452041625977</v>
       </c>
       <c r="I12" t="n">
-        <v>581.7860717773438</v>
+        <v>582.0560913085938</v>
       </c>
       <c r="J12" t="n">
-        <v>120.1992568969727</v>
+        <v>124.2421340942383</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>210.3793792724609</v>
+        <v>211.1145782470703</v>
       </c>
       <c r="H13" t="n">
-        <v>41.79017639160156</v>
+        <v>43.33893203735352</v>
       </c>
       <c r="I13" t="n">
-        <v>561.4002685546875</v>
+        <v>559.60205078125</v>
       </c>
       <c r="J13" t="n">
-        <v>137.8532409667969</v>
+        <v>143.2719268798828</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>129.1346130371094</v>
+        <v>130.1626434326172</v>
       </c>
       <c r="H14" t="n">
-        <v>34.07539749145508</v>
+        <v>30.18776702880859</v>
       </c>
       <c r="I14" t="n">
-        <v>246.0489044189453</v>
+        <v>247.0626068115234</v>
       </c>
       <c r="J14" t="n">
-        <v>69.68904113769531</v>
+        <v>70.63404083251953</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>143.7566070556641</v>
+        <v>142.5074310302734</v>
       </c>
       <c r="H15" t="n">
-        <v>38.18032455444336</v>
+        <v>33.10005569458008</v>
       </c>
       <c r="I15" t="n">
-        <v>312.7031555175781</v>
+        <v>309.8650207519531</v>
       </c>
       <c r="J15" t="n">
-        <v>71.63097381591797</v>
+        <v>73.63182830810547</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>157.8084716796875</v>
+        <v>157.7754364013672</v>
       </c>
       <c r="H16" t="n">
-        <v>37.41609573364258</v>
+        <v>37.94938278198242</v>
       </c>
       <c r="I16" t="n">
-        <v>382.8168640136719</v>
+        <v>383.5981140136719</v>
       </c>
       <c r="J16" t="n">
-        <v>79.61365509033203</v>
+        <v>78.06024169921875</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>176.5541534423828</v>
+        <v>176.7498321533203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.75821685791016</v>
+        <v>42.7840461730957</v>
       </c>
       <c r="I17" t="n">
-        <v>455.6690063476562</v>
+        <v>452.7583312988281</v>
       </c>
       <c r="J17" t="n">
-        <v>78.77311706542969</v>
+        <v>75.71239471435547</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>187.4519195556641</v>
+        <v>186.0174560546875</v>
       </c>
       <c r="H18" t="n">
-        <v>46.16414260864258</v>
+        <v>44.63147354125977</v>
       </c>
       <c r="I18" t="n">
-        <v>487.8423461914062</v>
+        <v>493.2658386230469</v>
       </c>
       <c r="J18" t="n">
-        <v>83.03720855712891</v>
+        <v>86.52239990234375</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>196.4587249755859</v>
+        <v>196.6866302490234</v>
       </c>
       <c r="H19" t="n">
-        <v>45.52019119262695</v>
+        <v>46.10580444335938</v>
       </c>
       <c r="I19" t="n">
-        <v>551.9819946289062</v>
+        <v>550.606689453125</v>
       </c>
       <c r="J19" t="n">
-        <v>104.173828125</v>
+        <v>102.7889022827148</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>202.4434661865234</v>
+        <v>201.0909576416016</v>
       </c>
       <c r="H20" t="n">
-        <v>42.30210876464844</v>
+        <v>44.2065315246582</v>
       </c>
       <c r="I20" t="n">
-        <v>590.0418090820312</v>
+        <v>585.5726318359375</v>
       </c>
       <c r="J20" t="n">
-        <v>127.81396484375</v>
+        <v>129.4701538085938</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>211.7103424072266</v>
+        <v>209.4851379394531</v>
       </c>
       <c r="H21" t="n">
-        <v>42.46772766113281</v>
+        <v>42.14788818359375</v>
       </c>
       <c r="I21" t="n">
-        <v>574.6996459960938</v>
+        <v>571.99755859375</v>
       </c>
       <c r="J21" t="n">
-        <v>141.1811676025391</v>
+        <v>141.5275268554688</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>259.8732299804688</v>
+        <v>261.7608032226562</v>
       </c>
       <c r="H22" t="n">
-        <v>58.24872207641602</v>
+        <v>58.22002792358398</v>
       </c>
       <c r="I22" t="n">
-        <v>506.2466735839844</v>
+        <v>510.8870849609375</v>
       </c>
       <c r="J22" t="n">
-        <v>163.4303588867188</v>
+        <v>167.6880645751953</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>124.462760925293</v>
+        <v>124.7425155639648</v>
       </c>
       <c r="H23" t="n">
-        <v>28.30961036682129</v>
+        <v>30.02926445007324</v>
       </c>
       <c r="I23" t="n">
-        <v>184.2238616943359</v>
+        <v>183.0061492919922</v>
       </c>
       <c r="J23" t="n">
-        <v>74.173583984375</v>
+        <v>73.76971435546875</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>134.6130218505859</v>
+        <v>133.3732299804688</v>
       </c>
       <c r="H24" t="n">
-        <v>31.7125244140625</v>
+        <v>30.81901168823242</v>
       </c>
       <c r="I24" t="n">
-        <v>233.9970550537109</v>
+        <v>229.4883575439453</v>
       </c>
       <c r="J24" t="n">
-        <v>78.05109405517578</v>
+        <v>74.28437042236328</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>149.3928375244141</v>
+        <v>146.8981475830078</v>
       </c>
       <c r="H25" t="n">
-        <v>36.64114761352539</v>
+        <v>33.3082275390625</v>
       </c>
       <c r="I25" t="n">
-        <v>287.5765686035156</v>
+        <v>291.8334045410156</v>
       </c>
       <c r="J25" t="n">
-        <v>81.56184387207031</v>
+        <v>80.93251037597656</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>165.8412170410156</v>
+        <v>166.3029479980469</v>
       </c>
       <c r="H26" t="n">
-        <v>41.25470733642578</v>
+        <v>43.30927658081055</v>
       </c>
       <c r="I26" t="n">
-        <v>365.28564453125</v>
+        <v>369.3305053710938</v>
       </c>
       <c r="J26" t="n">
-        <v>90.76610565185547</v>
+        <v>94.30203247070312</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>179.3769073486328</v>
+        <v>182.2780303955078</v>
       </c>
       <c r="H27" t="n">
-        <v>44.30971145629883</v>
+        <v>45.98138046264648</v>
       </c>
       <c r="I27" t="n">
-        <v>448.0034484863281</v>
+        <v>454.0423583984375</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37932586669922</v>
+        <v>101.5877532958984</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>189.7068786621094</v>
+        <v>188.7429962158203</v>
       </c>
       <c r="H28" t="n">
-        <v>45.99454498291016</v>
+        <v>45.60436248779297</v>
       </c>
       <c r="I28" t="n">
-        <v>526.3253173828125</v>
+        <v>519.1431884765625</v>
       </c>
       <c r="J28" t="n">
-        <v>111.4484329223633</v>
+        <v>109.9516067504883</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>200.56884765625</v>
+        <v>201.1025695800781</v>
       </c>
       <c r="H29" t="n">
-        <v>47.25887298583984</v>
+        <v>46.97219085693359</v>
       </c>
       <c r="I29" t="n">
-        <v>583.9602661132812</v>
+        <v>573.2114868164062</v>
       </c>
       <c r="J29" t="n">
-        <v>132.7809753417969</v>
+        <v>139.7754516601562</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>223.8408813476562</v>
+        <v>224.2168731689453</v>
       </c>
       <c r="H30" t="n">
-        <v>49.3751220703125</v>
+        <v>49.83329010009766</v>
       </c>
       <c r="I30" t="n">
-        <v>595.6555786132812</v>
+        <v>595.63671875</v>
       </c>
       <c r="J30" t="n">
-        <v>142.2993927001953</v>
+        <v>143.3633575439453</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>275.6432495117188</v>
+        <v>275.2101745605469</v>
       </c>
       <c r="H31" t="n">
-        <v>61.26876068115234</v>
+        <v>59.60248565673828</v>
       </c>
       <c r="I31" t="n">
-        <v>524.8236083984375</v>
+        <v>521.644287109375</v>
       </c>
       <c r="J31" t="n">
-        <v>159.2559967041016</v>
+        <v>167.3684997558594</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>123.2895431518555</v>
+        <v>123.766487121582</v>
       </c>
       <c r="H32" t="n">
-        <v>28.51981544494629</v>
+        <v>29.45387649536133</v>
       </c>
       <c r="I32" t="n">
-        <v>144.4916229248047</v>
+        <v>143.5510864257812</v>
       </c>
       <c r="J32" t="n">
-        <v>77.55727386474609</v>
+        <v>76.12281036376953</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>136.4089508056641</v>
+        <v>133.9370880126953</v>
       </c>
       <c r="H33" t="n">
-        <v>31.95131492614746</v>
+        <v>30.90240859985352</v>
       </c>
       <c r="I33" t="n">
-        <v>180.0169067382812</v>
+        <v>178.9450073242188</v>
       </c>
       <c r="J33" t="n">
-        <v>83.61222076416016</v>
+        <v>87.11464691162109</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>149.2336578369141</v>
+        <v>147.0081024169922</v>
       </c>
       <c r="H34" t="n">
-        <v>37.44553375244141</v>
+        <v>35.68612670898438</v>
       </c>
       <c r="I34" t="n">
-        <v>228.9359588623047</v>
+        <v>226.7452545166016</v>
       </c>
       <c r="J34" t="n">
-        <v>88.79096221923828</v>
+        <v>96.37104034423828</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>160.9304656982422</v>
+        <v>164.0529632568359</v>
       </c>
       <c r="H35" t="n">
-        <v>41.72966003417969</v>
+        <v>43.08435821533203</v>
       </c>
       <c r="I35" t="n">
-        <v>301.2960815429688</v>
+        <v>295.6111450195312</v>
       </c>
       <c r="J35" t="n">
-        <v>99.64736938476562</v>
+        <v>100.5660018920898</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>179.8434600830078</v>
+        <v>178.7441864013672</v>
       </c>
       <c r="H36" t="n">
-        <v>48.20806884765625</v>
+        <v>46.78085708618164</v>
       </c>
       <c r="I36" t="n">
-        <v>400.486083984375</v>
+        <v>402.2865295410156</v>
       </c>
       <c r="J36" t="n">
-        <v>106.9090118408203</v>
+        <v>110.5989761352539</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>186.1107635498047</v>
+        <v>189.2689208984375</v>
       </c>
       <c r="H37" t="n">
-        <v>48.14653396606445</v>
+        <v>48.84170913696289</v>
       </c>
       <c r="I37" t="n">
-        <v>485.0980224609375</v>
+        <v>480.9618835449219</v>
       </c>
       <c r="J37" t="n">
-        <v>120.0750732421875</v>
+        <v>118.4503860473633</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>207.3504028320312</v>
+        <v>204.2852630615234</v>
       </c>
       <c r="H38" t="n">
-        <v>49.14707565307617</v>
+        <v>47.19013214111328</v>
       </c>
       <c r="I38" t="n">
-        <v>566.7368774414062</v>
+        <v>558.7353515625</v>
       </c>
       <c r="J38" t="n">
-        <v>141.1064758300781</v>
+        <v>142.3837280273438</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>232.0043487548828</v>
+        <v>230.4144287109375</v>
       </c>
       <c r="H39" t="n">
-        <v>52.72114562988281</v>
+        <v>52.18359756469727</v>
       </c>
       <c r="I39" t="n">
-        <v>592.6615600585938</v>
+        <v>595.099609375</v>
       </c>
       <c r="J39" t="n">
-        <v>153.0883941650391</v>
+        <v>151.6200866699219</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>291.5123901367188</v>
+        <v>291.1842041015625</v>
       </c>
       <c r="H40" t="n">
-        <v>69.66633605957031</v>
+        <v>64.5506591796875</v>
       </c>
       <c r="I40" t="n">
-        <v>557.4630737304688</v>
+        <v>555.8392944335938</v>
       </c>
       <c r="J40" t="n">
-        <v>159.1470031738281</v>
+        <v>162.4242248535156</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>126.4389419555664</v>
+        <v>126.252815246582</v>
       </c>
       <c r="H41" t="n">
-        <v>30.21611976623535</v>
+        <v>30.00020790100098</v>
       </c>
       <c r="I41" t="n">
-        <v>107.8026962280273</v>
+        <v>108.1023559570312</v>
       </c>
       <c r="J41" t="n">
-        <v>80.63055419921875</v>
+        <v>85.1142578125</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>140.3727722167969</v>
+        <v>141.2996063232422</v>
       </c>
       <c r="H42" t="n">
-        <v>35.47568130493164</v>
+        <v>37.41115570068359</v>
       </c>
       <c r="I42" t="n">
-        <v>133.5885772705078</v>
+        <v>133.0587615966797</v>
       </c>
       <c r="J42" t="n">
-        <v>87.573974609375</v>
+        <v>86.5869140625</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>153.2364807128906</v>
+        <v>152.9848785400391</v>
       </c>
       <c r="H43" t="n">
-        <v>42.23259353637695</v>
+        <v>42.55687713623047</v>
       </c>
       <c r="I43" t="n">
-        <v>176.4524536132812</v>
+        <v>174.3833923339844</v>
       </c>
       <c r="J43" t="n">
-        <v>88.88968658447266</v>
+        <v>95.95217895507812</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>168.5076904296875</v>
+        <v>169.1348571777344</v>
       </c>
       <c r="H44" t="n">
-        <v>49.13521194458008</v>
+        <v>50.21108627319336</v>
       </c>
       <c r="I44" t="n">
-        <v>238.5369567871094</v>
+        <v>242.2105407714844</v>
       </c>
       <c r="J44" t="n">
-        <v>101.0604476928711</v>
+        <v>101.4679565429688</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>179.8724365234375</v>
+        <v>181.4761047363281</v>
       </c>
       <c r="H45" t="n">
-        <v>51.17994689941406</v>
+        <v>52.05011749267578</v>
       </c>
       <c r="I45" t="n">
-        <v>347.3363952636719</v>
+        <v>346.1734619140625</v>
       </c>
       <c r="J45" t="n">
-        <v>114.155876159668</v>
+        <v>115.5683670043945</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>193.0919189453125</v>
+        <v>193.5133361816406</v>
       </c>
       <c r="H46" t="n">
-        <v>48.99635314941406</v>
+        <v>49.52151870727539</v>
       </c>
       <c r="I46" t="n">
-        <v>457.1738586425781</v>
+        <v>456.7292785644531</v>
       </c>
       <c r="J46" t="n">
-        <v>127.3946838378906</v>
+        <v>125.9841690063477</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>207.1278839111328</v>
+        <v>207.6214294433594</v>
       </c>
       <c r="H47" t="n">
-        <v>50.48675537109375</v>
+        <v>52.43069839477539</v>
       </c>
       <c r="I47" t="n">
-        <v>526.9432983398438</v>
+        <v>530.7401123046875</v>
       </c>
       <c r="J47" t="n">
-        <v>149.8233642578125</v>
+        <v>151.5143737792969</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>244.7161712646484</v>
+        <v>246.0083923339844</v>
       </c>
       <c r="H48" t="n">
-        <v>57.3170166015625</v>
+        <v>56.12533569335938</v>
       </c>
       <c r="I48" t="n">
-        <v>588.38037109375</v>
+        <v>588.0858154296875</v>
       </c>
       <c r="J48" t="n">
-        <v>161.5905609130859</v>
+        <v>165.0459136962891</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>301.1028747558594</v>
+        <v>298.3777465820312</v>
       </c>
       <c r="H49" t="n">
-        <v>68.15172576904297</v>
+        <v>67.58225250244141</v>
       </c>
       <c r="I49" t="n">
-        <v>564.13037109375</v>
+        <v>564.1192016601562</v>
       </c>
       <c r="J49" t="n">
-        <v>171.3046112060547</v>
+        <v>169.9342803955078</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>136.1718597412109</v>
+        <v>137.9577026367188</v>
       </c>
       <c r="H50" t="n">
-        <v>35.5833740234375</v>
+        <v>39.64890670776367</v>
       </c>
       <c r="I50" t="n">
-        <v>74.34037780761719</v>
+        <v>76.17753601074219</v>
       </c>
       <c r="J50" t="n">
-        <v>85.42900848388672</v>
+        <v>89.91555023193359</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>151.0716857910156</v>
+        <v>152.9994049072266</v>
       </c>
       <c r="H51" t="n">
-        <v>44.09819793701172</v>
+        <v>46.23056411743164</v>
       </c>
       <c r="I51" t="n">
-        <v>94.02203369140625</v>
+        <v>94.84614562988281</v>
       </c>
       <c r="J51" t="n">
-        <v>85.49462127685547</v>
+        <v>87.48033905029297</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>164.8246307373047</v>
+        <v>164.1051025390625</v>
       </c>
       <c r="H52" t="n">
-        <v>52.44781494140625</v>
+        <v>53.28174209594727</v>
       </c>
       <c r="I52" t="n">
-        <v>126.763671875</v>
+        <v>125.5622100830078</v>
       </c>
       <c r="J52" t="n">
-        <v>89.43003082275391</v>
+        <v>90.72599792480469</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>176.2508392333984</v>
+        <v>175.3452301025391</v>
       </c>
       <c r="H53" t="n">
-        <v>55.03858184814453</v>
+        <v>53.99455642700195</v>
       </c>
       <c r="I53" t="n">
-        <v>181.3601226806641</v>
+        <v>179.9681701660156</v>
       </c>
       <c r="J53" t="n">
-        <v>95.63249969482422</v>
+        <v>96.59297943115234</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>189.3018035888672</v>
+        <v>187.5174407958984</v>
       </c>
       <c r="H54" t="n">
-        <v>56.57149124145508</v>
+        <v>54.74292373657227</v>
       </c>
       <c r="I54" t="n">
-        <v>284.0538330078125</v>
+        <v>282.3470153808594</v>
       </c>
       <c r="J54" t="n">
-        <v>103.4763793945312</v>
+        <v>100.9980392456055</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>198.1869506835938</v>
+        <v>197.2629089355469</v>
       </c>
       <c r="H55" t="n">
-        <v>56.21662139892578</v>
+        <v>57.73966217041016</v>
       </c>
       <c r="I55" t="n">
-        <v>402.6175842285156</v>
+        <v>402.8008117675781</v>
       </c>
       <c r="J55" t="n">
-        <v>117.8111801147461</v>
+        <v>122.8418731689453</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>215.8034820556641</v>
+        <v>215.1445465087891</v>
       </c>
       <c r="H56" t="n">
-        <v>55.26729965209961</v>
+        <v>55.35822677612305</v>
       </c>
       <c r="I56" t="n">
-        <v>510.6731872558594</v>
+        <v>498.1537475585938</v>
       </c>
       <c r="J56" t="n">
-        <v>153.7871704101562</v>
+        <v>149.8766021728516</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>247.12158203125</v>
+        <v>249.7203369140625</v>
       </c>
       <c r="H57" t="n">
-        <v>58.17784118652344</v>
+        <v>59.34006118774414</v>
       </c>
       <c r="I57" t="n">
-        <v>586.1768188476562</v>
+        <v>575.454345703125</v>
       </c>
       <c r="J57" t="n">
-        <v>167.8622589111328</v>
+        <v>172.8600463867188</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>304.629638671875</v>
+        <v>304.7396850585938</v>
       </c>
       <c r="H58" t="n">
-        <v>67.05595397949219</v>
+        <v>68.19870758056641</v>
       </c>
       <c r="I58" t="n">
-        <v>571.9801635742188</v>
+        <v>572.8513793945312</v>
       </c>
       <c r="J58" t="n">
-        <v>179.4390869140625</v>
+        <v>181.7321624755859</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>163.5361785888672</v>
+        <v>162.2650451660156</v>
       </c>
       <c r="H59" t="n">
-        <v>54.78910446166992</v>
+        <v>54.04337310791016</v>
       </c>
       <c r="I59" t="n">
-        <v>42.96196746826172</v>
+        <v>47.04291152954102</v>
       </c>
       <c r="J59" t="n">
-        <v>92.87700653076172</v>
+        <v>88.57129669189453</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>170.8231201171875</v>
+        <v>171.7883148193359</v>
       </c>
       <c r="H60" t="n">
-        <v>57.93199920654297</v>
+        <v>55.05326843261719</v>
       </c>
       <c r="I60" t="n">
-        <v>77.10549163818359</v>
+        <v>79.87578582763672</v>
       </c>
       <c r="J60" t="n">
-        <v>95.28794860839844</v>
+        <v>93.82239532470703</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>182.3660278320312</v>
+        <v>184.3154144287109</v>
       </c>
       <c r="H61" t="n">
-        <v>61.81014633178711</v>
+        <v>63.29874038696289</v>
       </c>
       <c r="I61" t="n">
-        <v>142.1257629394531</v>
+        <v>137.8590393066406</v>
       </c>
       <c r="J61" t="n">
-        <v>93.50554656982422</v>
+        <v>95.26361083984375</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>195.5396423339844</v>
+        <v>195.9765167236328</v>
       </c>
       <c r="H62" t="n">
-        <v>66.0247802734375</v>
+        <v>63.63985061645508</v>
       </c>
       <c r="I62" t="n">
-        <v>210.81884765625</v>
+        <v>209.0937042236328</v>
       </c>
       <c r="J62" t="n">
-        <v>107.3692855834961</v>
+        <v>106.205192565918</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>204.8272247314453</v>
+        <v>206.7136840820312</v>
       </c>
       <c r="H63" t="n">
-        <v>60.78707504272461</v>
+        <v>61.65621948242188</v>
       </c>
       <c r="I63" t="n">
-        <v>351.9715270996094</v>
+        <v>354.019287109375</v>
       </c>
       <c r="J63" t="n">
-        <v>110.352165222168</v>
+        <v>115.6303558349609</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>224.326171875</v>
+        <v>224.0894012451172</v>
       </c>
       <c r="H64" t="n">
-        <v>63.06036758422852</v>
+        <v>59.68294143676758</v>
       </c>
       <c r="I64" t="n">
-        <v>468.1830139160156</v>
+        <v>472.4695434570312</v>
       </c>
       <c r="J64" t="n">
-        <v>151.2963104248047</v>
+        <v>149.5406188964844</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>259.8578796386719</v>
+        <v>258.7207946777344</v>
       </c>
       <c r="H65" t="n">
-        <v>66.89848327636719</v>
+        <v>65.30563354492188</v>
       </c>
       <c r="I65" t="n">
-        <v>550.7202758789062</v>
+        <v>557.2203369140625</v>
       </c>
       <c r="J65" t="n">
-        <v>169.9469299316406</v>
+        <v>173.7857666015625</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>177.7185668945312</v>
+        <v>177.6700592041016</v>
       </c>
       <c r="H66" t="n">
-        <v>60.55996704101562</v>
+        <v>62.34829711914062</v>
       </c>
       <c r="I66" t="n">
-        <v>17.10259056091309</v>
+        <v>20.85678863525391</v>
       </c>
       <c r="J66" t="n">
-        <v>96.46397399902344</v>
+        <v>93.09365844726562</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>186.7393188476562</v>
+        <v>188.2915191650391</v>
       </c>
       <c r="H67" t="n">
-        <v>64.31237030029297</v>
+        <v>64.37905883789062</v>
       </c>
       <c r="I67" t="n">
-        <v>75.11667633056641</v>
+        <v>77.82619476318359</v>
       </c>
       <c r="J67" t="n">
-        <v>98.42632293701172</v>
+        <v>97.17874908447266</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>196.3146362304688</v>
+        <v>196.7793121337891</v>
       </c>
       <c r="H68" t="n">
-        <v>66.33408355712891</v>
+        <v>66.13505554199219</v>
       </c>
       <c r="I68" t="n">
-        <v>153.8471221923828</v>
+        <v>153.03857421875</v>
       </c>
       <c r="J68" t="n">
-        <v>101.9646682739258</v>
+        <v>101.3100051879883</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>212.5667419433594</v>
+        <v>212.2088012695312</v>
       </c>
       <c r="H69" t="n">
-        <v>65.21231079101562</v>
+        <v>65.56248474121094</v>
       </c>
       <c r="I69" t="n">
-        <v>275.9371948242188</v>
+        <v>277.2030334472656</v>
       </c>
       <c r="J69" t="n">
-        <v>120.3910980224609</v>
+        <v>115.5199508666992</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>229.8157348632812</v>
+        <v>232.3957824707031</v>
       </c>
       <c r="H70" t="n">
-        <v>65.5162353515625</v>
+        <v>67.70236206054688</v>
       </c>
       <c r="I70" t="n">
-        <v>418.7351684570312</v>
+        <v>419.2250061035156</v>
       </c>
       <c r="J70" t="n">
-        <v>141.3149261474609</v>
+        <v>136.9406433105469</v>
       </c>
     </row>
   </sheetData>
